--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00370240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Efficacy of Infiltration of Chlorhydrate of Ropivacaine in the Prevention of Chronic Breast Pain After Surgery for Breast Cancer.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00853710</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Validation of a Semiquantitative Screening Assay for PSA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01455363</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Etude peropératoire de la Perfusion Sanguine Des Carcinomes Basocellulaires Par Imageur Laser Doppler, au Cours de la Manipulation de l'Influx artériel Tumoral - Recherche d'un phénomène d'hyperémie Tumorale Post-occlusive</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>HPOB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01448759</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prospective Evaluation of Plasma Alcohol Concentration in Patients Receiving Paclitaxel or Docetaxel Infusion</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>ALCOOTAX</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -692,32 +717,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01334008</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Metastatic Choroidal Melanoma</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -736,36 +766,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02839473</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hydrosorb® Versus Control (Water Based Spray) in the Management of Radio-induced Skin Toxicity: Multicentre Controlled Phase III Randomized Trial</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>HYDROSORB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -784,36 +819,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00957411</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Phase II Randomized Assessing Pelvic Irradiation Combined With Cisplatin Alone or Cisplatin Plus Cetuximab in Patients With Carcinoma of the Cervix Stage IB2, II and III</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>CETUXICOL</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -832,32 +872,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02519166</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Biofilm Plaie</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02849106</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Predictive Response to Chemotherapy (FOLFOX or FOLFIRI) by ex Vivo Culture 3D Technique in Metastatic Colorectal Cancer: a Preliminary Study</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>CULTURE3D</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -924,32 +974,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01350908</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Ovarian Cancer</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -968,32 +1023,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02831634</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>A Feasibility Study to Identify T-cell Responses to Neo-epitopes in Tumor Invaded Lymph Nodes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1012,36 +1072,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01373710</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Phase 1-2 Study of Safety and Efficacy of Intrathecal Trastuzumab Administration in Metastatic HER2 Positive Breast Cancer Patients Developing Carcinomatous Meningitis</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>HIT</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1060,36 +1125,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01349842</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>CirCe01 Study: Evaluation of the Use of Circulating Tumour Cells to Guide Chemotherapy From the 3rd Line of Chemotherapy for Metastatic Breast Cancer</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CirCé01</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1108,36 +1178,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01956695</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Phase II Study Evaluating the Efficacy of Lenalidomide in Association With Rituximab in Refractory or Relapse of Primary Central Nervous System Lymphoma (PCNSL)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>REVRI</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1156,32 +1231,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01975142</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1200,36 +1280,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT02875652</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Study of Circulating Tumoral DNA Evolution in Plasma in Choroidal Melanoma</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>ctDNA MU</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1248,36 +1333,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02408393</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>MIRs03</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1296,32 +1386,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02849145</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Study to Evaluation Interest of the Circulating Tumor DNA Dosage in Patient With Hepatic Metastatic Uveal Melanoma Candidate to Complete Resection (R0)</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1340,36 +1435,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT03703557</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>KDOG2</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1388,36 +1488,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01351870</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>SIOP-PNET-4</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02834494</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>NEO-ELASTO</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1484,36 +1594,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02428842</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BIO-RAIDs</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1532,36 +1647,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02843386</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>FOTEADJ</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1580,36 +1700,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT03109080</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>RadioPARP</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1628,36 +1753,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT04541537</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>KDOGCOV</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1676,32 +1806,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02608346</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1720,32 +1855,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02842723</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1764,36 +1904,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02546453</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>NGSKids</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1812,32 +1957,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT04327063</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1856,36 +2006,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT04145817</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>BRIDGEScohort2</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1904,36 +2059,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT03298893</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>NiCOL</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1952,36 +2112,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT04369066</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Curie-O-SA</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2000,36 +2165,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT04478175</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>DParcoursDig</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2048,36 +2218,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT03011528</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>CombinaiR3</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2096,36 +2271,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02864563</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>PHRCNB07</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2144,36 +2324,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT04217109</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>KDOG1</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2192,36 +2377,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02244125</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>PCD</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2240,36 +2430,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02849158</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>FibroRect</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2288,36 +2483,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT04827030</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>ER-One</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2336,36 +2536,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02802969</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Improvement of Local Control in Skull Base, Spine and Sacral Chordomas Treated by Surgery and Protontherapy Targeting Hypoxic Cells Revealed by [18F]FAZA) PET/CT Tracers</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>PROTONCHORDE01</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2384,36 +2589,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT05141383</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Comparative Study of Diagnostic and Prognosis Biomarkers of Prostate Cancer in Liquid Biopsy</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>HOPE</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2432,36 +2642,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT04402606</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>DERMACLIC</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2480,36 +2695,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02866149</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Analysis of Circulating Tumor Markers in the Blood</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>ALCINA</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2528,32 +2748,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT04634097</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2572,28 +2797,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT00792025</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>A Multicentre Phase II Trial to Determine the Efficacy of the Anti-Tyrosine Kinase Sunitinib (Sutent®) as Second Line Therapy in Patients With Transitional Cell Carcinoma (TCC) of the Urothelium Which Failed or Progressed After First Line Chemotherapy for Advanced or Metastatic Disease</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -67,7 +67,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00370240</t>

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -88,117 +88,117 @@
     <t>NCT00957411</t>
   </si>
   <si>
+    <t>NCT02849106</t>
+  </si>
+  <si>
     <t>NCT02519166</t>
   </si>
   <si>
-    <t>NCT02849106</t>
-  </si>
-  <si>
     <t>NCT01350908</t>
   </si>
   <si>
+    <t>NCT01349842</t>
+  </si>
+  <si>
+    <t>NCT01373710</t>
+  </si>
+  <si>
     <t>NCT02831634</t>
   </si>
   <si>
-    <t>NCT01373710</t>
-  </si>
-  <si>
-    <t>NCT01349842</t>
-  </si>
-  <si>
     <t>NCT01956695</t>
   </si>
   <si>
+    <t>NCT02875652</t>
+  </si>
+  <si>
     <t>NCT01975142</t>
   </si>
   <si>
-    <t>NCT02875652</t>
-  </si>
-  <si>
     <t>NCT02408393</t>
   </si>
   <si>
     <t>NCT02849145</t>
   </si>
   <si>
+    <t>NCT02834494</t>
+  </si>
+  <si>
     <t>NCT03703557</t>
   </si>
   <si>
+    <t>NCT02428842</t>
+  </si>
+  <si>
+    <t>NCT02843386</t>
+  </si>
+  <si>
     <t>NCT01351870</t>
   </si>
   <si>
-    <t>NCT02834494</t>
-  </si>
-  <si>
-    <t>NCT02428842</t>
-  </si>
-  <si>
-    <t>NCT02843386</t>
+    <t>NCT02842723</t>
+  </si>
+  <si>
+    <t>NCT02546453</t>
   </si>
   <si>
     <t>NCT03109080</t>
   </si>
   <si>
+    <t>NCT02608346</t>
+  </si>
+  <si>
     <t>NCT04541537</t>
   </si>
   <si>
-    <t>NCT02608346</t>
-  </si>
-  <si>
-    <t>NCT02842723</t>
-  </si>
-  <si>
-    <t>NCT02546453</t>
+    <t>NCT04145817</t>
+  </si>
+  <si>
+    <t>NCT03298893</t>
+  </si>
+  <si>
+    <t>NCT04478175</t>
   </si>
   <si>
     <t>NCT04327063</t>
   </si>
   <si>
-    <t>NCT04145817</t>
-  </si>
-  <si>
-    <t>NCT03298893</t>
-  </si>
-  <si>
     <t>NCT04369066</t>
   </si>
   <si>
-    <t>NCT04478175</t>
+    <t>NCT04827030</t>
+  </si>
+  <si>
+    <t>NCT02244125</t>
+  </si>
+  <si>
+    <t>NCT02864563</t>
+  </si>
+  <si>
+    <t>NCT04217109</t>
   </si>
   <si>
     <t>NCT03011528</t>
   </si>
   <si>
-    <t>NCT02864563</t>
-  </si>
-  <si>
-    <t>NCT04217109</t>
-  </si>
-  <si>
-    <t>NCT02244125</t>
-  </si>
-  <si>
     <t>NCT02849158</t>
   </si>
   <si>
-    <t>NCT04827030</t>
+    <t>NCT04634097</t>
   </si>
   <si>
     <t>NCT02802969</t>
   </si>
   <si>
+    <t>NCT02866149</t>
+  </si>
+  <si>
+    <t>NCT04402606</t>
+  </si>
+  <si>
     <t>NCT05141383</t>
   </si>
   <si>
-    <t>NCT04402606</t>
-  </si>
-  <si>
-    <t>NCT02866149</t>
-  </si>
-  <si>
-    <t>NCT04634097</t>
-  </si>
-  <si>
     <t>NCT00792025</t>
   </si>
   <si>
@@ -268,43 +268,49 @@
     <t>Development and Validation of a Circulating Tumor DNA Detection Technique in Patients With Ovarian Cancer</t>
   </si>
   <si>
+    <t>CirCe01 Study: Evaluation of the Use of Circulating Tumour Cells to Guide Chemotherapy From the 3rd Line of Chemotherapy for Metastatic Breast Cancer</t>
+  </si>
+  <si>
+    <t>Phase 1-2 Study of Safety and Efficacy of Intrathecal Trastuzumab Administration in Metastatic HER2 Positive Breast Cancer Patients Developing Carcinomatous Meningitis</t>
+  </si>
+  <si>
     <t>A Feasibility Study to Identify T-cell Responses to Neo-epitopes in Tumor Invaded Lymph Nodes</t>
   </si>
   <si>
-    <t>Phase 1-2 Study of Safety and Efficacy of Intrathecal Trastuzumab Administration in Metastatic HER2 Positive Breast Cancer Patients Developing Carcinomatous Meningitis</t>
-  </si>
-  <si>
-    <t>CirCe01 Study: Evaluation of the Use of Circulating Tumour Cells to Guide Chemotherapy From the 3rd Line of Chemotherapy for Metastatic Breast Cancer</t>
-  </si>
-  <si>
     <t>Phase II Study Evaluating the Efficacy of Lenalidomide in Association With Rituximab in Refractory or Relapse of Primary Central Nervous System Lymphoma (PCNSL)</t>
   </si>
   <si>
+    <t>Study of Circulating Tumoral DNA Evolution in Plasma in Choroidal Melanoma</t>
+  </si>
+  <si>
     <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
   </si>
   <si>
-    <t>Study of Circulating Tumoral DNA Evolution in Plasma in Choroidal Melanoma</t>
-  </si>
-  <si>
     <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
   </si>
   <si>
     <t>Study to Evaluation Interest of the Circulating Tumor DNA Dosage in Patient With Hepatic Metastatic Uveal Melanoma Candidate to Complete Resection (R0)</t>
   </si>
   <si>
+    <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
+  </si>
+  <si>
     <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
   </si>
   <si>
+    <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
+  </si>
+  <si>
+    <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
+  </si>
+  <si>
     <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
   </si>
   <si>
-    <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
-  </si>
-  <si>
-    <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
-  </si>
-  <si>
-    <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
+    <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
+  </si>
+  <si>
+    <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
   </si>
   <si>
     <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
@@ -313,60 +319,54 @@
     <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
   </si>
   <si>
-    <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
-  </si>
-  <si>
-    <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
+    <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
+  </si>
+  <si>
+    <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
   </si>
   <si>
     <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
   </si>
   <si>
-    <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
-  </si>
-  <si>
-    <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
-  </si>
-  <si>
     <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
   </si>
   <si>
-    <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
+    <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
+  </si>
+  <si>
+    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
+  </si>
+  <si>
+    <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
+  </si>
+  <si>
+    <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
   </si>
   <si>
     <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
   </si>
   <si>
-    <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
-  </si>
-  <si>
-    <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
-  </si>
-  <si>
-    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
-  </si>
-  <si>
     <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
   </si>
   <si>
-    <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
+    <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
   </si>
   <si>
     <t>Improvement of Local Control in Skull Base, Spine and Sacral Chordomas Treated by Surgery and Protontherapy Targeting Hypoxic Cells Revealed by [18F]FAZA) PET/CT Tracers</t>
   </si>
   <si>
+    <t>Analysis of Circulating Tumor Markers in the Blood</t>
+  </si>
+  <si>
+    <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
+  </si>
+  <si>
     <t>Comparative Study of Diagnostic and Prognosis Biomarkers of Prostate Cancer in Liquid Biopsy</t>
   </si>
   <si>
-    <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
-  </si>
-  <si>
-    <t>Analysis of Circulating Tumor Markers in the Blood</t>
-  </si>
-  <si>
-    <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
-  </si>
-  <si>
     <t>A Multicentre Phase II Trial to Determine the Efficacy of the Anti-Tyrosine Kinase Sunitinib (Sutent®) as Second Line Therapy in Patients With Transitional Cell Carcinoma (TCC) of the Urothelium Which Failed or Progressed After First Line Chemotherapy for Advanced or Metastatic Disease</t>
   </si>
   <si>
@@ -382,18 +382,18 @@
     <t>CETUXICOL</t>
   </si>
   <si>
+    <t>CULTURE3D</t>
+  </si>
+  <si>
     <t>Biofilm Plaie</t>
   </si>
   <si>
-    <t>CULTURE3D</t>
+    <t>CirCé01</t>
   </si>
   <si>
     <t>HIT</t>
   </si>
   <si>
-    <t>CirCé01</t>
-  </si>
-  <si>
     <t>REVRI</t>
   </si>
   <si>
@@ -403,19 +403,22 @@
     <t>MIRs03</t>
   </si>
   <si>
+    <t>NEO-ELASTO</t>
+  </si>
+  <si>
     <t>KDOG2</t>
   </si>
   <si>
+    <t>BIO-RAIDs</t>
+  </si>
+  <si>
+    <t>FOTEADJ</t>
+  </si>
+  <si>
     <t>SIOP-PNET-4</t>
   </si>
   <si>
-    <t>NEO-ELASTO</t>
-  </si>
-  <si>
-    <t>BIO-RAIDs</t>
-  </si>
-  <si>
-    <t>FOTEADJ</t>
+    <t>NGSKids</t>
   </si>
   <si>
     <t>RadioPARP</t>
@@ -424,49 +427,46 @@
     <t>KDOGCOV</t>
   </si>
   <si>
-    <t>NGSKids</t>
-  </si>
-  <si>
     <t>BRIDGEScohort2</t>
   </si>
   <si>
     <t>NiCOL</t>
   </si>
   <si>
+    <t>DParcoursDig</t>
+  </si>
+  <si>
     <t>Curie-O-SA</t>
   </si>
   <si>
-    <t>DParcoursDig</t>
+    <t>ER-One</t>
+  </si>
+  <si>
+    <t>PCD</t>
+  </si>
+  <si>
+    <t>PHRCNB07</t>
+  </si>
+  <si>
+    <t>KDOG1</t>
   </si>
   <si>
     <t>CombinaiR3</t>
   </si>
   <si>
-    <t>PHRCNB07</t>
-  </si>
-  <si>
-    <t>KDOG1</t>
-  </si>
-  <si>
-    <t>PCD</t>
-  </si>
-  <si>
     <t>FibroRect</t>
   </si>
   <si>
-    <t>ER-One</t>
-  </si>
-  <si>
     <t>PROTONCHORDE01</t>
   </si>
   <si>
+    <t>ALCINA</t>
+  </si>
+  <si>
+    <t>DERMACLIC</t>
+  </si>
+  <si>
     <t>HOPE</t>
-  </si>
-  <si>
-    <t>DERMACLIC</t>
-  </si>
-  <si>
-    <t>ALCINA</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -1048,11 +1048,14 @@
       <c r="F9" t="s">
         <v>67</v>
       </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
       <c r="H9" t="s">
         <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1068,14 +1071,11 @@
       <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
       <c r="H10" t="s">
         <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1100,10 +1100,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1114,8 +1114,11 @@
       <c r="G12" t="s">
         <v>84</v>
       </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1135,7 +1138,7 @@
         <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
         <v>151</v>
@@ -1143,10 +1146,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1157,11 +1160,8 @@
       <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" t="s">
-        <v>125</v>
-      </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1189,10 +1189,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1203,16 +1203,19 @@
       <c r="G16" t="s">
         <v>88</v>
       </c>
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1223,11 +1226,8 @@
       <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1293,15 +1293,15 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1316,15 +1316,15 @@
         <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1339,15 +1339,15 @@
         <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1362,15 +1362,15 @@
         <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1385,15 +1385,15 @@
         <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1404,9 +1404,6 @@
       <c r="G25" t="s">
         <v>97</v>
       </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
       <c r="I25" t="s">
         <v>157</v>
       </c>
@@ -1425,21 +1422,21 @@
         <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1448,10 +1445,13 @@
         <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1468,10 +1468,10 @@
         <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1488,13 +1488,13 @@
         <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
         <v>136</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1513,8 +1513,11 @@
       <c r="G30" t="s">
         <v>101</v>
       </c>
+      <c r="H30" t="s">
+        <v>137</v>
+      </c>
       <c r="I30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1534,10 +1537,10 @@
         <v>102</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1557,10 +1560,10 @@
         <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1579,11 +1582,8 @@
       <c r="G33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" t="s">
-        <v>139</v>
-      </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1606,7 +1606,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1629,15 +1629,15 @@
         <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -1675,15 +1675,15 @@
         <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -1698,7 +1698,7 @@
         <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1721,7 +1721,7 @@
         <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1744,7 +1744,7 @@
         <v>146</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1763,11 +1763,8 @@
       <c r="G41" t="s">
         <v>112</v>
       </c>
-      <c r="H41" t="s">
-        <v>147</v>
-      </c>
       <c r="I41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1787,18 +1784,18 @@
         <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -1810,18 +1807,18 @@
         <v>114</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -1833,10 +1830,10 @@
         <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1854,6 +1851,9 @@
       </c>
       <c r="G45" t="s">
         <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>150</v>
       </c>
       <c r="I45" t="s">
         <v>152</v>

--- a/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
+++ b/publipostage2/04t0gwh46/liste_essais_cliniques_identifies_04t0gwh46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="174">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00370240</t>
@@ -91,12 +91,12 @@
     <t>NCT02849106</t>
   </si>
   <si>
+    <t>NCT01350908</t>
+  </si>
+  <si>
     <t>NCT02519166</t>
   </si>
   <si>
-    <t>NCT01350908</t>
-  </si>
-  <si>
     <t>NCT01349842</t>
   </si>
   <si>
@@ -109,99 +109,123 @@
     <t>NCT01956695</t>
   </si>
   <si>
+    <t>NCT01975142</t>
+  </si>
+  <si>
+    <t>NCT02408393</t>
+  </si>
+  <si>
     <t>NCT02875652</t>
   </si>
   <si>
-    <t>NCT01975142</t>
-  </si>
-  <si>
-    <t>NCT02408393</t>
+    <t>NCT02428842</t>
+  </si>
+  <si>
+    <t>NCT02834494</t>
+  </si>
+  <si>
+    <t>NCT03703557</t>
   </si>
   <si>
     <t>NCT02849145</t>
   </si>
   <si>
-    <t>NCT02834494</t>
-  </si>
-  <si>
-    <t>NCT03703557</t>
-  </si>
-  <si>
-    <t>NCT02428842</t>
+    <t>NCT01351870</t>
   </si>
   <si>
     <t>NCT02843386</t>
   </si>
   <si>
-    <t>NCT01351870</t>
+    <t>NCT02608346</t>
+  </si>
+  <si>
+    <t>NCT03109080</t>
   </si>
   <si>
     <t>NCT02842723</t>
   </si>
   <si>
+    <t>NCT04541537</t>
+  </si>
+  <si>
     <t>NCT02546453</t>
   </si>
   <si>
-    <t>NCT03109080</t>
-  </si>
-  <si>
-    <t>NCT02608346</t>
-  </si>
-  <si>
-    <t>NCT04541537</t>
+    <t>NCT04369066</t>
+  </si>
+  <si>
+    <t>NCT04478175</t>
+  </si>
+  <si>
+    <t>NCT03298893</t>
+  </si>
+  <si>
+    <t>NCT04327063</t>
   </si>
   <si>
     <t>NCT04145817</t>
   </si>
   <si>
-    <t>NCT03298893</t>
-  </si>
-  <si>
-    <t>NCT04478175</t>
-  </si>
-  <si>
-    <t>NCT04327063</t>
-  </si>
-  <si>
-    <t>NCT04369066</t>
+    <t>NCT03011528</t>
+  </si>
+  <si>
+    <t>NCT02849158</t>
+  </si>
+  <si>
+    <t>NCT02244125</t>
   </si>
   <si>
     <t>NCT04827030</t>
   </si>
   <si>
-    <t>NCT02244125</t>
-  </si>
-  <si>
     <t>NCT02864563</t>
   </si>
   <si>
     <t>NCT04217109</t>
   </si>
   <si>
-    <t>NCT03011528</t>
-  </si>
-  <si>
-    <t>NCT02849158</t>
-  </si>
-  <si>
     <t>NCT04634097</t>
   </si>
   <si>
+    <t>NCT02866149</t>
+  </si>
+  <si>
     <t>NCT02802969</t>
   </si>
   <si>
-    <t>NCT02866149</t>
-  </si>
-  <si>
     <t>NCT04402606</t>
   </si>
   <si>
     <t>NCT05141383</t>
   </si>
   <si>
+    <t>NCT04728113</t>
+  </si>
+  <si>
+    <t>NCT05011721</t>
+  </si>
+  <si>
+    <t>NCT01868269</t>
+  </si>
+  <si>
+    <t>NCT04934865</t>
+  </si>
+  <si>
     <t>NCT00792025</t>
   </si>
   <si>
+    <t>2008-001053-18</t>
+  </si>
+  <si>
+    <t>2009-017218-63</t>
+  </si>
+  <si>
+    <t>2012-003786-17</t>
+  </si>
+  <si>
+    <t>2016-001837-28</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -241,6 +265,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Efficacy of Infiltration of Chlorhydrate of Ropivacaine in the Prevention of Chronic Breast Pain After Surgery for Breast Cancer.</t>
   </si>
   <si>
@@ -280,31 +307,37 @@
     <t>Phase II Study Evaluating the Efficacy of Lenalidomide in Association With Rituximab in Refractory or Relapse of Primary Central Nervous System Lymphoma (PCNSL)</t>
   </si>
   <si>
+    <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
+  </si>
+  <si>
+    <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
+  </si>
+  <si>
     <t>Study of Circulating Tumoral DNA Evolution in Plasma in Choroidal Melanoma</t>
   </si>
   <si>
-    <t>Validity of HER2-amplified Circulating Tumor Cells to Select Metastatic Breast Cancer Considered HER2-negative for Trastuzumab-emtansine (T-DM1) Treatment.</t>
-  </si>
-  <si>
-    <t>MIRs03: A Double-blind Randomized Trial of Paravertebral Block With Ropivacaine Before Breast Cancer Surgery: Effects on Chronic Postoperative Pain</t>
+    <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
+  </si>
+  <si>
+    <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
+  </si>
+  <si>
+    <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
   </si>
   <si>
     <t>Study to Evaluation Interest of the Circulating Tumor DNA Dosage in Patient With Hepatic Metastatic Uveal Melanoma Candidate to Complete Resection (R0)</t>
   </si>
   <si>
-    <t>3D Elastography (Shear Wave) : Assessment of Response to Neo-adjuvant Chemotherapy (NACT) : in Vivo Quantification, for Patients With a Locally Advanced Breast Cancer.</t>
-  </si>
-  <si>
-    <t>Feasibility Study on the Possibility of Isolation of Volatile Organic Compounds (VOCs) Related to the Olfactory Signature of Breast Cancer</t>
-  </si>
-  <si>
-    <t>Biomarker Evaluation in Advanced Stage Cervical Cancer by an International Working Group. Tumor Stages (1B1 - 4)</t>
+    <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
   </si>
   <si>
     <t>Randomized Phase III Study Comparing an Adjuvant Chemotherapy With Fotemustin to Intensive Surveillance in Patients With High Risk Uveal Melanoma</t>
   </si>
   <si>
-    <t>A Prospective Randomised Controlled Trial of Hyperfractionated Versus Conventionally Fractionated Radiotherapy in Standard Risk Medulloblastoma</t>
+    <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
+  </si>
+  <si>
+    <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
   </si>
   <si>
     <t>Phase II Study on the Management of Pediatric Craniopharyngioma by a Combination of Partial Surgical Resection, and Protontherapy</t>
@@ -313,60 +346,66 @@
     <t>Use of Specific Genetic Alteration s of Tumoral Cells Identified by NGS to Follow Peripheral Samples of Children With Metastatic and/or High Risk Solid Tumor -</t>
   </si>
   <si>
-    <t>A Phase I of Olaparib With Radiation Therapy in Patients With Inflammatory, Loco-regionally Advanced or Metastatic TNBC (Triple Negative Breast Cancer) or Patient With Operated TNBC With Residual Disease</t>
-  </si>
-  <si>
-    <t>Circulating Tumor DNA and Follow-up of BRCA1 Mutation Carriers (CirCa 01)</t>
+    <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
+  </si>
+  <si>
+    <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
+  </si>
+  <si>
+    <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
   </si>
   <si>
     <t>Clinical Application of the European Horizon 2020 Research Project "BRIDGES" - Study of the Psychological Impact of Breast Cancer Risk Communication in Cancer Genetics Based on the Personalized Estimation of the BOADICEA V5/PLUS Model</t>
   </si>
   <si>
-    <t>A Phase-I Study of Nivolumab in Association With Radiotherapy and Cisplatin in Locally Advanced Cervical Cancers Followed by Adjuvant Nivolumab for up to 6 Months. NiCOL</t>
-  </si>
-  <si>
-    <t>Prospective Evaluation of a Program for Early Identification of Needs and Multidisciplinary Intervention in Supportive Care in Digestive Oncology - DISSPO Parcours Dig' Study</t>
-  </si>
-  <si>
-    <t>A Double-blind Randomized Trial of Interpectoral Nerve Block (Pecs 1 and 2) With Ropivacaine Versus Placebo Before Breast Cancer Surgery: Effects on Acute Postoperative Pain. (MIRs 04)</t>
-  </si>
-  <si>
-    <t>COVID-19 Study of the Serological Response Against the SARS-CoV-2 Virus in 2 Types of Employees, Hospital and Non-hospital, at Institute Curie and Institute Pasteur</t>
+    <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
+  </si>
+  <si>
+    <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
+  </si>
+  <si>
+    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
   </si>
   <si>
     <t>A Double-blind Randomized Non-inferiority Trial of Erector Spinae Block (ESP) Versus Paravertebral Block (PVB) Before Breast Cancer Surgery: Effects on Acute Postoperative Pain.</t>
   </si>
   <si>
-    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Cyclophosphamide and Dexamethasone in Relapse/Refractory Multiple Myeloma Patients Who Were First Treated Within the IFM/DFCI 2009 Trial</t>
-  </si>
-  <si>
     <t>Pan-genome Analysis of Neuroblastoma by Comparative Genomic Hybridization and Correlation With Pathology for the Diagnostic and the Prognostic Classification</t>
   </si>
   <si>
     <t>KDOG1 :Transcutaneous Breast Cancer Diagnosis by Canine Odorology</t>
   </si>
   <si>
-    <t>CombinaiR3 - First-line Treatment of Ewing Tumours With Primary Extrapulmonary Dissemination in Patients From 2 to 50 Years</t>
-  </si>
-  <si>
-    <t>Interest in Studying Fibroblast Before and After Neoadjuvant Chemo-radiotherapy in Patient With Locally Advanced Rectal Adenocarcinoma : Exploratory Study</t>
-  </si>
-  <si>
     <t>DECLIC Patient Education Program : Assessment Through a Population Health Intervention Research Approach (LE DECLIC EPRI)</t>
   </si>
   <si>
+    <t>Analysis of Circulating Tumor Markers in the Blood</t>
+  </si>
+  <si>
     <t>Improvement of Local Control in Skull Base, Spine and Sacral Chordomas Treated by Surgery and Protontherapy Targeting Hypoxic Cells Revealed by [18F]FAZA) PET/CT Tracers</t>
   </si>
   <si>
-    <t>Analysis of Circulating Tumor Markers in the Blood</t>
-  </si>
-  <si>
     <t>DERMACLIC : Study on Skin Toxicities Induced by Cancer Treatments</t>
   </si>
   <si>
     <t>Comparative Study of Diagnostic and Prognosis Biomarkers of Prostate Cancer in Liquid Biopsy</t>
   </si>
   <si>
+    <t>Early Integration of Supportive Care Into Standard Oncology Care for Metastatic Uveal Melanoma Patients</t>
+  </si>
+  <si>
+    <t>Digital Phenotyping (Physical Activity, Heart Rate, Sleep) in Young Breast Cancer Patients Treated With Neoadjuvant Chemotherapy</t>
+  </si>
+  <si>
+    <t>Multinational European Trial for Children With the Opsoclonus Myoclonus Syndrome / Dancing Eye Syndrome</t>
+  </si>
+  <si>
+    <t>Real Life Prospective Multicentric Study Evaluating the Clinical and Organisational Impact of Moovcare® Lung Connected Medical Device in Lung Cancer Patients : REAL-MOOV-LUNG</t>
+  </si>
+  <si>
     <t>A Multicentre Phase II Trial to Determine the Efficacy of the Anti-Tyrosine Kinase Sunitinib (Sutent®) as Second Line Therapy in Patients With Transitional Cell Carcinoma (TCC) of the Urothelium Which Failed or Progressed After First Line Chemotherapy for Advanced or Metastatic Disease</t>
   </si>
   <si>
@@ -397,10 +436,13 @@
     <t>REVRI</t>
   </si>
   <si>
+    <t>MIRs03</t>
+  </si>
+  <si>
     <t>ctDNA MU</t>
   </si>
   <si>
-    <t>MIRs03</t>
+    <t>BIO-RAIDs</t>
   </si>
   <si>
     <t>NEO-ELASTO</t>
@@ -409,88 +451,91 @@
     <t>KDOG2</t>
   </si>
   <si>
-    <t>BIO-RAIDs</t>
+    <t>SIOP-PNET-4</t>
   </si>
   <si>
     <t>FOTEADJ</t>
   </si>
   <si>
-    <t>SIOP-PNET-4</t>
+    <t>RadioPARP</t>
+  </si>
+  <si>
+    <t>KDOGCOV</t>
   </si>
   <si>
     <t>NGSKids</t>
   </si>
   <si>
-    <t>RadioPARP</t>
-  </si>
-  <si>
-    <t>KDOGCOV</t>
+    <t>Curie-O-SA</t>
+  </si>
+  <si>
+    <t>DParcoursDig</t>
+  </si>
+  <si>
+    <t>NiCOL</t>
   </si>
   <si>
     <t>BRIDGEScohort2</t>
   </si>
   <si>
-    <t>NiCOL</t>
-  </si>
-  <si>
-    <t>DParcoursDig</t>
-  </si>
-  <si>
-    <t>Curie-O-SA</t>
+    <t>CombinaiR3</t>
+  </si>
+  <si>
+    <t>FibroRect</t>
+  </si>
+  <si>
+    <t>PCD</t>
   </si>
   <si>
     <t>ER-One</t>
   </si>
   <si>
-    <t>PCD</t>
-  </si>
-  <si>
     <t>PHRCNB07</t>
   </si>
   <si>
     <t>KDOG1</t>
   </si>
   <si>
-    <t>CombinaiR3</t>
-  </si>
-  <si>
-    <t>FibroRect</t>
+    <t>ALCINA</t>
   </si>
   <si>
     <t>PROTONCHORDE01</t>
   </si>
   <si>
-    <t>ALCINA</t>
-  </si>
-  <si>
     <t>DERMACLIC</t>
   </si>
   <si>
     <t>HOPE</t>
   </si>
   <si>
+    <t>NeoFit</t>
+  </si>
+  <si>
+    <t>REAL-MOOV-LUNG</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>DRUG</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>DIAGNOSTIC_TEST</t>
   </si>
   <si>
     <t>RADIATION</t>
   </si>
   <si>
-    <t>BEHAVIORAL</t>
+    <t>GENETIC</t>
   </si>
 </sst>
 </file>
@@ -848,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,13 +939,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -914,13 +959,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -934,16 +979,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -957,16 +1002,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -980,13 +1025,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1000,16 +1045,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1022,17 +1067,20 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1046,16 +1094,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1069,13 +1117,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1089,13 +1137,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1109,16 +1157,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1131,17 +1179,20 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1155,13 +1206,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1174,40 +1225,40 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1221,56 +1272,62 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1284,16 +1341,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1307,85 +1364,82 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1399,59 +1453,59 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1465,13 +1519,16 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1485,16 +1542,16 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1508,16 +1565,16 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1531,16 +1588,16 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1554,16 +1611,16 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1577,13 +1634,13 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1597,16 +1654,16 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1620,62 +1677,62 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I36" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I37" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1689,16 +1746,16 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1712,16 +1769,16 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1735,16 +1792,16 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1758,59 +1815,59 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1824,16 +1881,16 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1847,16 +1904,16 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1869,11 +1926,97 @@
       <c r="C46" t="s">
         <v>61</v>
       </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
